--- a/Score/1专升本考试成绩与对比.xlsx
+++ b/Score/1专升本考试成绩与对比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARN\学习资料\专升本\专升本资料\ZhuanShengBen\Score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\专升本\ZhuanShengBen\Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA431749-2305-42E2-8D00-50F7EF7B1583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0100EF6-4953-49BC-9392-B171DE46928F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +68,10 @@
   </si>
   <si>
     <t>目标                   考试次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,6 +382,54 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,54 +446,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +731,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -745,10 +743,10 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="3">
         <v>1</v>
       </c>
@@ -815,477 +813,495 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="9">
         <v>80</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="10">
         <v>85</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="24"/>
+      <c r="E2" s="17">
+        <v>63</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <v>85</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="10">
         <v>90</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="26"/>
+      <c r="E3" s="19">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="9">
         <v>60</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="10">
         <v>75</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="26"/>
+      <c r="E4" s="19">
+        <v>32.5</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="9">
         <v>80</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>90</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="26"/>
+      <c r="E5" s="19">
+        <v>75</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="11">
         <f>C2+C3+C4+C5</f>
         <v>305</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <f t="shared" ref="D6:Y6" si="0">D2+D3+D4+D5</f>
         <v>340</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
+        <v>230.5</v>
+      </c>
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="21">
         <f t="shared" ref="K6" si="1">K2+K3+K4+K5</f>
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="21">
         <f t="shared" ref="L6" si="2">L2+L3+L4+L5</f>
         <v>0</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="21">
         <f t="shared" ref="M6" si="3">M2+M3+M4+M5</f>
         <v>0</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="21">
         <f t="shared" ref="N6" si="4">N2+N3+N4+N5</f>
         <v>0</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="21">
         <f t="shared" ref="O6" si="5">O2+O3+O4+O5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="27">
+      <c r="P6" s="21">
         <f t="shared" ref="P6" si="6">P2+P3+P4+P5</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="21">
         <f t="shared" ref="Q6" si="7">Q2+Q3+Q4+Q5</f>
         <v>0</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="21">
         <f t="shared" ref="R6" si="8">R2+R3+R4+R5</f>
         <v>0</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="21">
         <f t="shared" ref="S6" si="9">S2+S3+S4+S5</f>
         <v>0</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="21">
         <f t="shared" ref="T6" si="10">T2+T3+T4+T5</f>
         <v>0</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="21">
         <f t="shared" ref="U6" si="11">U2+U3+U4+U5</f>
         <v>0</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="21">
         <f t="shared" ref="V6" si="12">V2+V3+V4+V5</f>
         <v>0</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X6" s="27">
+      <c r="X6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>85</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="14">
         <v>80</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="26"/>
+      <c r="E7" s="19">
+        <v>54.5</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="9">
         <v>95</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="10">
         <v>90</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="26"/>
+      <c r="E8" s="19">
+        <v>96</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="9">
         <v>80</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>70</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="26"/>
+      <c r="E9" s="19">
+        <v>51</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="9">
         <v>95</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="10">
         <v>90</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="26"/>
+      <c r="E10" s="19">
+        <v>81</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="15">
         <f>C7+C8+C9+C10</f>
         <v>355</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <f t="shared" ref="D11" si="13">D7+D8+D9+D10</f>
         <v>330</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="19">
         <f t="shared" ref="E11" si="14">E7+E8+E9+E10</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
+        <v>282.5</v>
+      </c>
+      <c r="F11" s="19">
         <f t="shared" ref="F11" si="15">F7+F8+F9+F10</f>
         <v>0</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="19">
         <f t="shared" ref="G11" si="16">G7+G8+G9+G10</f>
         <v>0</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="19">
         <f t="shared" ref="H11" si="17">H7+H8+H9+H10</f>
         <v>0</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="19">
         <f t="shared" ref="I11" si="18">I7+I8+I9+I10</f>
         <v>0</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="19">
         <f t="shared" ref="J11" si="19">J7+J8+J9+J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="19">
         <f t="shared" ref="K11" si="20">K7+K8+K9+K10</f>
         <v>0</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="19">
         <f t="shared" ref="L11" si="21">L7+L8+L9+L10</f>
         <v>0</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="19">
         <f t="shared" ref="M11" si="22">M7+M8+M9+M10</f>
         <v>0</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="19">
         <f t="shared" ref="N11" si="23">N7+N8+N9+N10</f>
         <v>0</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="19">
         <f t="shared" ref="O11" si="24">O7+O8+O9+O10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="19">
         <f t="shared" ref="P11" si="25">P7+P8+P9+P10</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="19">
         <f t="shared" ref="Q11" si="26">Q7+Q8+Q9+Q10</f>
         <v>0</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="19">
         <f t="shared" ref="R11" si="27">R7+R8+R9+R10</f>
         <v>0</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="19">
         <f t="shared" ref="S11" si="28">S7+S8+S9+S10</f>
         <v>0</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="19">
         <f t="shared" ref="T11" si="29">T7+T8+T9+T10</f>
         <v>0</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="19">
         <f t="shared" ref="U11" si="30">U7+U8+U9+U10</f>
         <v>0</v>
       </c>
-      <c r="V11" s="25">
+      <c r="V11" s="19">
         <f t="shared" ref="V11" si="31">V7+V8+V9+V10</f>
         <v>0</v>
       </c>
-      <c r="W11" s="25">
+      <c r="W11" s="19">
         <f t="shared" ref="W11" si="32">W7+W8+W9+W10</f>
         <v>0</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11" s="19">
         <f t="shared" ref="X11" si="33">X7+X8+X9+X10</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="Y11" s="20">
         <f t="shared" ref="Y11" si="34">Y7+Y8+Y9+Y10</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>

--- a/Score/1专升本考试成绩与对比.xlsx
+++ b/Score/1专升本考试成绩与对比.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\专升本\ZhuanShengBen\Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0100EF6-4953-49BC-9392-B171DE46928F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C85A0-322F-451C-B1A7-8BA8D5BFCACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>开学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.12.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +735,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -863,7 +867,9 @@
       <c r="E3" s="19">
         <v>60</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="19">
+        <v>82</v>
+      </c>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
@@ -898,7 +904,9 @@
       <c r="E4" s="19">
         <v>32.5</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="19">
+        <v>37</v>
+      </c>
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -933,7 +941,9 @@
       <c r="E5" s="19">
         <v>75</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="19">
+        <v>71</v>
+      </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -973,7 +983,7 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
@@ -1103,7 +1113,9 @@
       <c r="E8" s="19">
         <v>96</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="19">
+        <v>85</v>
+      </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -1138,7 +1150,9 @@
       <c r="E9" s="19">
         <v>51</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="19">
+        <v>51</v>
+      </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1173,7 +1187,9 @@
       <c r="E10" s="19">
         <v>81</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="19">
+        <v>69.5</v>
+      </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -1213,7 +1229,7 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" ref="F11" si="15">F7+F8+F9+F10</f>
-        <v>0</v>
+        <v>205.5</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ref="G11" si="16">G7+G8+G9+G10</f>
@@ -1302,7 +1318,9 @@
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>

--- a/Score/1专升本考试成绩与对比.xlsx
+++ b/Score/1专升本考试成绩与对比.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\专升本\ZhuanShengBen\Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C85A0-322F-451C-B1A7-8BA8D5BFCACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927E8F4-9DBB-4565-A218-E15A650E66AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="1995" windowWidth="14955" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -832,7 +832,9 @@
       <c r="E2" s="17">
         <v>63</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="17">
+        <v>64</v>
+      </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -983,7 +985,7 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
@@ -1078,7 +1080,9 @@
       <c r="E7" s="19">
         <v>54.5</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="19">
+        <v>61.5</v>
+      </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -1229,7 +1233,7 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" ref="F11" si="15">F7+F8+F9+F10</f>
-        <v>205.5</v>
+        <v>267</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" ref="G11" si="16">G7+G8+G9+G10</f>

--- a/Score/1专升本考试成绩与对比.xlsx
+++ b/Score/1专升本考试成绩与对比.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\专升本\ZhuanShengBen\Score\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B927E8F4-9DBB-4565-A218-E15A650E66AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="1995" windowWidth="14955" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="1995" windowWidth="14955" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,11 +72,15 @@
     <t>20.12.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>21.3.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -547,7 +545,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -724,18 +722,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -835,7 +833,9 @@
       <c r="F2" s="17">
         <v>64</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17">
+        <v>62.5</v>
+      </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
@@ -872,7 +872,9 @@
       <c r="F3" s="19">
         <v>82</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="19">
+        <v>88</v>
+      </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -909,7 +911,9 @@
       <c r="F4" s="19">
         <v>37</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="19">
+        <v>41</v>
+      </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -946,7 +950,9 @@
       <c r="F5" s="19">
         <v>71</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="19">
+        <v>80</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -989,7 +995,7 @@
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>271.5</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
@@ -1083,7 +1089,9 @@
       <c r="F7" s="19">
         <v>61.5</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="19">
+        <v>65</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -1120,7 +1128,9 @@
       <c r="F8" s="19">
         <v>85</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="19">
+        <v>91</v>
+      </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -1157,7 +1167,9 @@
       <c r="F9" s="19">
         <v>51</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="19">
+        <v>50</v>
+      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -1194,7 +1206,9 @@
       <c r="F10" s="19">
         <v>69.5</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19">
+        <v>80</v>
+      </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1237,7 +1251,7 @@
       </c>
       <c r="G11" s="19">
         <f t="shared" ref="G11" si="16">G7+G8+G9+G10</f>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" ref="H11" si="17">H7+H8+H9+H10</f>
@@ -1325,7 +1339,9 @@
       <c r="F12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
